--- a/data/financial_statements/soci/PHM.xlsx
+++ b/data/financial_statements/soci/PHM.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -122,9 +239,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -177,12 +291,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -487,144 +598,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>3944000000</v>
+        <v>3943816000</v>
       </c>
       <c r="C2">
-        <v>3926000000</v>
+        <v>3926186000</v>
       </c>
       <c r="D2">
-        <v>3188000000</v>
+        <v>3187615000</v>
       </c>
       <c r="E2">
-        <v>4359000000</v>
+        <v>4358557000</v>
       </c>
       <c r="F2">
-        <v>3479000000</v>
+        <v>3479050000</v>
       </c>
       <c r="G2">
         <v>3359484000</v>
@@ -730,23 +841,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>0.1337</v>
+        <v>0.1336</v>
       </c>
       <c r="C3">
-        <v>0.1686</v>
+        <v>0.1687</v>
       </c>
       <c r="D3">
-        <v>0.1679</v>
+        <v>0.1677</v>
       </c>
       <c r="E3">
-        <v>0.3654</v>
+        <v>0.3653</v>
       </c>
       <c r="F3">
-        <v>0.1773</v>
+        <v>0.1774</v>
       </c>
       <c r="G3">
         <v>0.2952</v>
@@ -852,23 +963,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>2760000000</v>
+        <v>2757233000</v>
       </c>
       <c r="C4">
-        <v>2710000000</v>
+        <v>2706859000</v>
       </c>
       <c r="D4">
-        <v>2259000000</v>
+        <v>2256562000</v>
       </c>
       <c r="E4">
-        <v>3167000000</v>
+        <v>3164022000</v>
       </c>
       <c r="F4">
-        <v>2537000000</v>
+        <v>2533392000</v>
       </c>
       <c r="G4">
         <v>2447101000</v>
@@ -974,23 +1085,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>1184000000</v>
+        <v>1186583000</v>
       </c>
       <c r="C5">
-        <v>1217000000</v>
+        <v>1219327000</v>
       </c>
       <c r="D5">
-        <v>928000000</v>
+        <v>931053000</v>
       </c>
       <c r="E5">
-        <v>1192000000</v>
+        <v>1194535000</v>
       </c>
       <c r="F5">
-        <v>942000000</v>
+        <v>945658000</v>
       </c>
       <c r="G5">
         <v>912382800</v>
@@ -1096,8 +1207,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>350112000</v>
@@ -1112,7 +1223,7 @@
         <v>344220000</v>
       </c>
       <c r="F6">
-        <v>322000000</v>
+        <v>320506000</v>
       </c>
       <c r="G6">
         <v>272286000</v>
@@ -1218,8 +1329,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>811276900</v>
@@ -1340,8 +1451,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1381,8 +1492,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1440,8 +1551,8 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
         <v>-23000000</v>
@@ -1499,23 +1610,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>811000000</v>
+        <v>811277000</v>
       </c>
       <c r="C11">
-        <v>865000000</v>
+        <v>864573000</v>
       </c>
       <c r="D11">
-        <v>600000000</v>
+        <v>599893000</v>
       </c>
       <c r="E11">
-        <v>856000000</v>
+        <v>855918000</v>
       </c>
       <c r="F11">
-        <v>620000000</v>
+        <v>620402000</v>
       </c>
       <c r="G11">
         <v>639473000</v>
@@ -1621,23 +1732,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>183000000</v>
+        <v>183349000</v>
       </c>
       <c r="C12">
-        <v>212000000</v>
+        <v>212138000</v>
       </c>
       <c r="D12">
-        <v>145000000</v>
+        <v>145170000</v>
       </c>
       <c r="E12">
-        <v>193000000</v>
+        <v>192653000</v>
       </c>
       <c r="F12">
-        <v>145000000</v>
+        <v>144853000</v>
       </c>
       <c r="G12">
         <v>136074000</v>
@@ -1743,8 +1854,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>627928000</v>
@@ -1865,8 +1976,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>3736000</v>
@@ -1972,23 +2083,23 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
-        <v>624000000</v>
+        <v>624192000</v>
       </c>
       <c r="C15">
-        <v>649000000</v>
+        <v>648546000</v>
       </c>
       <c r="D15">
-        <v>451000000</v>
+        <v>454723000</v>
       </c>
       <c r="E15">
-        <v>657000000</v>
+        <v>654796900</v>
       </c>
       <c r="F15">
-        <v>472000000</v>
+        <v>471707000</v>
       </c>
       <c r="G15">
         <v>499374000</v>
@@ -2094,23 +2205,23 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>2.69</v>
+        <v>2.7</v>
       </c>
       <c r="C16">
-        <v>2.73</v>
+        <v>2.74</v>
       </c>
       <c r="D16">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="E16">
         <v>2.61</v>
       </c>
       <c r="F16">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="G16">
         <v>1.91</v>
@@ -2216,8 +2327,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>2.69</v>
@@ -2338,23 +2449,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>231000000</v>
+        <v>230967000</v>
       </c>
       <c r="C18">
-        <v>236000000</v>
+        <v>236328000</v>
       </c>
       <c r="D18">
-        <v>246000000</v>
+        <v>245796000</v>
       </c>
       <c r="E18">
-        <v>252000000</v>
+        <v>259285000</v>
       </c>
       <c r="F18">
-        <v>258000000</v>
+        <v>258147000</v>
       </c>
       <c r="G18">
         <v>262099000</v>
@@ -2460,23 +2571,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>232000000</v>
+        <v>232300000</v>
       </c>
       <c r="C19">
-        <v>238000000</v>
+        <v>237646000</v>
       </c>
       <c r="D19">
-        <v>247000000</v>
+        <v>246865000</v>
       </c>
       <c r="E19">
-        <v>252000000</v>
+        <v>259928000</v>
       </c>
       <c r="F19">
-        <v>259000000</v>
+        <v>258899000</v>
       </c>
       <c r="G19">
         <v>262747000</v>
@@ -2582,23 +2693,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>0.3002</v>
+        <v>0.3009</v>
       </c>
       <c r="C20">
-        <v>0.31</v>
+        <v>0.3106</v>
       </c>
       <c r="D20">
-        <v>0.2911</v>
+        <v>0.2921</v>
       </c>
       <c r="E20">
-        <v>0.2735</v>
+        <v>0.2741</v>
       </c>
       <c r="F20">
-        <v>0.2708</v>
+        <v>0.2718</v>
       </c>
       <c r="G20">
         <v>0.2716</v>
@@ -2704,8 +2815,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>0.2057</v>
@@ -2826,14 +2937,14 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>0.2056</v>
+        <v>0.2057</v>
       </c>
       <c r="C22">
-        <v>0.2203</v>
+        <v>0.2202</v>
       </c>
       <c r="D22">
         <v>0.1882</v>
@@ -2842,7 +2953,7 @@
         <v>0.1964</v>
       </c>
       <c r="F22">
-        <v>0.1782</v>
+        <v>0.1783</v>
       </c>
       <c r="G22">
         <v>0.1903</v>
@@ -2948,23 +3059,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>0.1582</v>
+        <v>0.1583</v>
       </c>
       <c r="C23">
-        <v>0.1653</v>
+        <v>0.1652</v>
       </c>
       <c r="D23">
-        <v>0.1415</v>
+        <v>0.1427</v>
       </c>
       <c r="E23">
-        <v>0.1507</v>
+        <v>0.1502</v>
       </c>
       <c r="F23">
-        <v>0.1357</v>
+        <v>0.1356</v>
       </c>
       <c r="G23">
         <v>0.1486</v>
@@ -3070,23 +3181,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>852000000</v>
+        <v>829817900</v>
       </c>
       <c r="C24">
-        <v>883000000</v>
+        <v>881785000</v>
       </c>
       <c r="D24">
-        <v>615000000</v>
+        <v>616074100</v>
       </c>
       <c r="E24">
-        <v>864000000</v>
+        <v>872848200</v>
       </c>
       <c r="F24">
-        <v>639000000</v>
+        <v>638017800</v>
       </c>
       <c r="G24">
         <v>657737700</v>
@@ -3192,8 +3303,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>811276900</v>
@@ -3314,8 +3425,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>627928000</v>
@@ -3436,23 +3547,23 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>624000000</v>
+        <v>627928000</v>
       </c>
       <c r="C27">
-        <v>649000000</v>
+        <v>652435000</v>
       </c>
       <c r="D27">
-        <v>451000000</v>
+        <v>454723000</v>
       </c>
       <c r="E27">
-        <v>657000000</v>
+        <v>663265000</v>
       </c>
       <c r="F27">
-        <v>472000000</v>
+        <v>475549000</v>
       </c>
       <c r="G27">
         <v>503399000</v>
@@ -3558,8 +3669,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>2.7187</v>
@@ -3680,8 +3791,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>2.7031</v>
@@ -3802,8 +3913,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>2.7187</v>
@@ -3924,8 +4035,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>2.7031</v>
@@ -4046,8 +4157,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>232300000</v>
@@ -4168,23 +4279,23 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
-        <v>0.216</v>
+        <v>0.2104</v>
       </c>
       <c r="C33">
-        <v>0.2249</v>
+        <v>0.2246</v>
       </c>
       <c r="D33">
-        <v>0.1929</v>
+        <v>0.1933</v>
       </c>
       <c r="E33">
-        <v>0.1982</v>
+        <v>0.2003</v>
       </c>
       <c r="F33">
-        <v>0.1837</v>
+        <v>0.1834</v>
       </c>
       <c r="G33">
         <v>0.1958</v>
@@ -4290,8 +4401,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>-0.103</v>
